--- a/Metagenomic analysis/T2D.fil ps tax.table.xlsx
+++ b/Metagenomic analysis/T2D.fil ps tax.table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/Metagenomic analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B28F92A1-8DBF-450B-B1C5-233195919745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{B28F92A1-8DBF-450B-B1C5-233195919745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CF5FDA0-945A-463D-AFEC-8CCB0EEC1822}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="390" windowWidth="9460" windowHeight="10150"/>
+    <workbookView xWindow="-20" yWindow="10" windowWidth="9890" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2D.fil ps tax.table" sheetId="1" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2099,11 +2099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="H46" sqref="G46:H46"/>
+    <sheetView tabSelected="1" topLeftCell="A702" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="G732" sqref="G732:H732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
